--- a/outputs/ROME3.xlsx
+++ b/outputs/ROME3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she would likely read the README to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page provides a clear link to the README file, making it straightforward for Abi to take this action.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather necessary information. The page clearly lists the README file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points, but it does not include detailed steps or a direct link to file an issue. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain about what to do next without explicit guidance.</t>
+Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, leading to uncertainty about whether she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly mentions a "Contribute.md" file, which is a common place to find information about contributing to a project, including how to file issues. Given Abi's comprehensive information processing style, she would likely recognize this as a relevant document to read. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page provides a clear link to the Contribute.md file, making it straightforward for Abi to take this action.</t>
+Why: The page explicitly mentions "Contribute.md" under the "Want to help?" section, which suggests it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely recognize that clicking on "Contribute.md" is a logical next step to find detailed instructions on how to file an issue. The page provides enough context for Abi to understand that this action is relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear and specific instructions on how to file an issue, including a dedicated section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which directly addresses Abi's goal. Given Abi's comprehensive information processing style, she will recognize that she is making progress toward her goal by following these detailed instructions. Additionally, her preference for process-oriented learning is supported by the step-by-step guidance provided in the document.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report a bug or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has found the relevant information and is making progress toward her goal. The detailed instructions will help her feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The Contribute.md file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her task and her comprehensive information processing style, she will recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the Contribute.md file will help her understand that she is on the right path.</t>
+Why: The "Contribute.md" file includes a specific section titled "File an issue," which directly addresses the subgoal of filing an issue. This section provides clear instructions on how to report a bug or request a feature, which aligns with Abi's motivation to accomplish her task efficiently. Given Abi's comprehensive information processing style, she will recognize that following these instructions is a necessary step toward achieving her overall goal of filing an issue to have a merge request template.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The Contribute.md file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style, she will recognize that going to the list of issues is a necessary step toward filing an issue. The document provides a direct link and context, making it straightforward for Abi to understand what to do next. Additionally, her preference for process-oriented learning is supported by the step-by-step guidance provided in the document.</t>
+Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that clicking on the link to the list of issues is the next logical step in the process of filing an issue. The page provides enough context and guidance for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with the instructions provided in the Contribute.md file, confirming that she is on the right path. The page layout is straightforward and provides the necessary context for filing a new issue, which supports Abi's comprehensive information processing style and preference for process-oriented learning. She will know that she is making progress toward her goal and has the information she needs to proceed.</t>
+Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her comprehensive information processing style, as she can see that she is in the right place to file a new issue. The presence of the "New issue" button provides a clear next step, making it evident that she is making progress toward her goal of filing an issue. The page layout and options are straightforward, ensuring that Abi can confidently proceed with filing the issue.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the issues list page, making it clear and straightforward for Abi to identify the next step. Given Abi's comprehensive information processing style, she will recognize that clicking this button is the appropriate action to take in order to file a new issue. The page layout and the clear labeling of the button support her process-oriented learning style, providing her with the confidence to proceed with this action.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the appropriate action to take in order to file a new issue. The page layout and the clear labeling of the button provide sufficient guidance for Abi to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard components for filing an issue. Given Abi's comprehensive information processing style, she will recognize that she is on the correct page to file the issue. The clear layout and labeled fields support her process-oriented learning style, providing her with the confidence that she is making progress toward her goal and has all the information she needs to complete the task.</t>
+Why: After clicking "New issue," Abi is taken to a straightforward form where she can enter the title, type, and description of the issue. The form is clearly labeled and provides all the necessary fields to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue and has all the information she needs to proceed. The clear layout and instructions will help her feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take next. The page layout and labeled fields support her process-oriented learning style, providing her with the confidence to complete the form and submit the issue.</t>
+Why: The form is straightforward and clearly labeled, with fields for the title, type, and description of the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take once the form is completed. The page provides all the necessary information and guidance for Abi to confidently proceed with filing the issue.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, supporting her comprehensive information processing style and process-oriented learning style. She will know that she did the right thing and has all the information she needs.</t>
+Why: After submitting the issue, Abi is taken to a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, reinforcing that she has done the right thing. Given Abi's comprehensive information processing style and preference for process-oriented learning, this confirmation will help her feel confident that she has achieved her subgoal.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME3.xlsx
+++ b/outputs/ROME3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or guidance on this page would likely deter ABI from thinking this is a relevant step.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather necessary information. The page clearly lists the README file, making it accessible for Abi to take this action.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize the README.md file as a potential source of relevant information. The page clearly lists the README.md file, making it accessible for ABI to read and gather the necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README contains general information about the project, technologies used, and contact points, but it does not provide clear instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed and specific instructions to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear guidance, leading to uncertainty about whether she is on the right track.</t>
+Why: After reading the README.md file, ABI would not find specific information about how to file an issue. The page contains general information about the project, technologies used, and contact points, but it does not provide explicit instructions on filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, would not feel assured that they are making progress toward their goal. The lack of clear, step-by-step guidance would likely leave ABI uncertain about the next steps.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions "Contribute.md" under the "Want to help?" section, which suggests it contains information for new contributors. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely recognize that clicking on "Contribute.md" is a logical next step to find detailed instructions on how to file an issue. The page provides enough context for Abi to understand that this action is relevant to her goal.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a relevant and logical next step to find information about how to file an issue. The clear labeling and context provided on the page would guide ABI to click on the "Contribute.md" file to gather the necessary information.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses Abi's goal and provides the necessary steps to report a bug or request a feature. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has found the relevant information and is making progress toward her goal. The detailed instructions will help her feel confident that she is on the right track.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses ABI's subgoal by explaining the process of creating a new issue on GitLab. The comprehensive and step-by-step nature of the information aligns well with ABI's preference for detailed guidance and process-oriented learning. Therefore, ABI will know that they did the right thing and are making progress toward their goal, as they will find all the necessary information to file an issue.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file includes a specific section titled "File an issue," which directly addresses the subgoal of filing an issue. This section provides clear instructions on how to report a bug or request a feature, which aligns with Abi's motivation to accomplish her task efficiently. Given Abi's comprehensive information processing style, she will recognize that following these instructions is a necessary step toward achieving her overall goal of filing an issue to have a merge request template.</t>
+Why: The "Contribute.md" file contains a specific section titled "File an issue," which provides clear instructions on how to file an issue, including creating a "New Issue" on GitLab. This directly aligns with ABI's subgoal of finding information about how to file an issue. Given ABI's preference for comprehensive information and step-by-step guidance, this page would be seen as a relevant and necessary step toward achieving the overall use case of filing an issue to have a merge request template.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that clicking on the link to the list of issues is the next logical step in the process of filing an issue. The page provides enough context and guidance for Abi to know what to do at this step.</t>
+Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes the step to go to the list of issues on GitLab. ABI, who prefers comprehensive information and step-by-step guidance, would understand that navigating to the list of issues is a necessary step in the process of filing an issue. The detailed instructions provided in the "Contribute.md" file would give ABI the confidence to take this action, knowing it is part of the overall process.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her comprehensive information processing style, as she can see that she is in the right place to file a new issue. The presence of the "New issue" button provides a clear next step, making it evident that she is making progress toward her goal of filing an issue. The page layout and options are straightforward, ensuring that Abi can confidently proceed with filing the issue.</t>
+Why: Upon reaching the list of issues, ABI will see a clear and familiar interface with a "New issue" button prominently displayed. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is on the right track. The presence of the "New issue" button and the list of existing issues will provide ABI with the confidence that they are making progress toward their goal of filing an issue. The interface is straightforward and provides the necessary cues for ABI to proceed with creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking this button is the appropriate action to take in order to file a new issue. The page layout and the clear labeling of the button provide sufficient guidance for Abi to proceed confidently.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. Given ABI's preference for comprehensive information and step-by-step guidance, the clear labeling and placement of the "New issue" button provide a straightforward cue for ABI to proceed. The page is well-organized and intuitive, ensuring that ABI will know what to do at this step and feel confident in taking the action to click the "New issue" button.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi is taken to a straightforward form where she can enter the title, type, and description of the issue. The form is clearly labeled and provides all the necessary fields to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she is on the correct page to file the issue and has all the information she needs to proceed. The clear layout and instructions will help her feel confident that she is making progress toward her goal.</t>
+Why: After clicking "New issue," ABI is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This clear and simple interface aligns with ABI's preference for comprehensive information and step-by-step guidance. The presence of the "Create issue" button at the bottom further confirms that ABI is on the right track and making progress toward their goal. The form provides all the necessary fields to file the issue, ensuring ABI has all the information needed to complete the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form is straightforward and clearly labeled, with fields for the title, type, and description of the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that she needs to fill out these fields to file the issue. The "Create issue" button is prominently displayed, making it clear what action to take once the form is completed. The page provides all the necessary information and guidance for Abi to confidently proceed with filing the issue.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and step-by-step guidance, will find the form intuitive and easy to understand. The "Create issue" button at the bottom of the form provides a clear next step for submitting the issue. The page is well-organized and provides all the necessary fields and options for ABI to complete the task, ensuring that ABI knows what to do and feels confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi is taken to a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, reinforcing that she has done the right thing. Given Abi's comprehensive information processing style and preference for process-oriented learning, this confirmation will help her feel confident that she has achieved her subgoal.</t>
+Why: After submitting the issue, ABI is taken to a confirmation page that shows the newly created issue with a status of "Open" and the details they entered. This immediate feedback confirms that ABI has successfully filed the issue and is making progress toward their goal. The page is clear and provides all the necessary information, including the issue title, description, and status, ensuring that ABI knows they did the right thing and has all the information they need. The straightforward and informative layout aligns with ABI's preference for comprehensive information and step-by-step guidance.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME3.xlsx
+++ b/outputs/ROME3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or guidance on this page would likely deter ABI from thinking this is a relevant step.</t>
+Why: The page shown is a repository view with various files and folders listed. There is no clear indication or information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to consider this page as a step toward finding information about filing an issue. The lack of explicit instructions or guidance on this page would likely deter ABI from thinking this is the right step.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize the README.md file as a potential source of relevant information. The page clearly lists the README.md file, making it accessible for ABI to read and gather the necessary information.</t>
+Why: The README file is a common place to find introductory and instructional information about a project. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize that reading the README could provide useful guidance on how to proceed, including potentially how to file an issue. The README section on this page includes various headings and sections that might contain the needed information, making it a logical step for ABI to take.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README.md file, ABI would not find specific information about how to file an issue. The page contains general information about the project, technologies used, and contact points, but it does not provide explicit instructions on filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, would not feel assured that they are making progress toward their goal. The lack of clear, step-by-step guidance would likely leave ABI uncertain about the next steps.</t>
+Why: While the README file is a logical place to look for information, the content shown in the image does not provide specific instructions on how to file an issue. The sections in the README focus on general information about the project, how to use the FLOSSCoach portal, build status, features, technologies, code style, and contributions. There is no explicit mention of filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, would not find the specific guidance needed to feel confident that they are making progress toward their goal. The lack of clear, direct instructions on filing an issue would likely leave ABI uncertain about the next steps.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a relevant and logical next step to find information about how to file an issue. The clear labeling and context provided on the page would guide ABI to click on the "Contribute.md" file to gather the necessary information.</t>
+Why: The "contribute.md" file is likely to contain information about how to contribute to the project, which often includes instructions on how to file issues. ABI, who prefers comprehensive information and process-oriented learning, would recognize that clicking on the "contribute.md" file could provide the necessary guidance on how to file an issue. The file name itself suggests that it contains relevant information for contributors, making it a logical step for ABI to take.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section directly addresses ABI's subgoal by explaining the process of creating a new issue on GitLab. The comprehensive and step-by-step nature of the information aligns well with ABI's preference for detailed guidance and process-oriented learning. Therefore, ABI will know that they did the right thing and are making progress toward their goal, as they will find all the necessary information to file an issue.</t>
+Why: The "contribute.md" file provides a clear section titled "File an issue," which directly addresses ABI's subgoal of finding information about how to file an issue. The instructions are straightforward and provide the necessary steps to create a new issue in the GitLab app. This aligns well with ABI's preference for comprehensive information and process-oriented learning. By following these instructions, ABI will know that they are making progress toward their goal and will have the information needed to file an issue.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file contains a specific section titled "File an issue," which provides clear instructions on how to file an issue, including creating a "New Issue" on GitLab. This directly aligns with ABI's subgoal of finding information about how to file an issue. Given ABI's preference for comprehensive information and step-by-step guidance, this page would be seen as a relevant and necessary step toward achieving the overall use case of filing an issue to have a merge request template.</t>
+Why: The "contribute.md" file contains a clear section titled "File an issue," which provides specific instructions on how to file an issue. This directly aligns with ABI's subgoal of filing an issue. The detailed steps and clear guidance would help ABI understand that this is a necessary step toward achieving the overall use case. Given ABI's preference for comprehensive information, the presence of explicit instructions would make it clear that they are on the right path.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions under the "File an issue" section, which includes the step to go to the list of issues on GitLab. ABI, who prefers comprehensive information and step-by-step guidance, would understand that navigating to the list of issues is a necessary step in the process of filing an issue. The detailed instructions provided in the "Contribute.md" file would give ABI the confidence to take this action, knowing it is part of the overall process.</t>
+Why: The "contribute.md" file provides clear instructions under the "File an issue" section, which includes a link to the list of issues. ABI, who prefers comprehensive information and process-oriented learning, would understand that going to the list of issues is the next logical step in the process of filing an issue. The instructions are explicit and provide a direct path to follow, making it clear to ABI what to do next.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon reaching the list of issues, ABI will see a clear and familiar interface with a "New issue" button prominently displayed. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is on the right track. The presence of the "New issue" button and the list of existing issues will provide ABI with the confidence that they are making progress toward their goal of filing an issue. The interface is straightforward and provides the necessary cues for ABI to proceed with creating a new issue.</t>
+Why: Upon reaching the list of issues, ABI will see a clear and organized list of existing issues, along with a prominent "New issue" button at the top right. This aligns with the instructions provided in the "contribute.md" file, confirming to ABI that they are on the right track. The presence of the "New issue" button provides a clear next step, making it evident that ABI is making progress toward their goal of filing an issue. The page layout and labeling are straightforward, which supports ABI's preference for comprehensive information and process-oriented learning.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. Given ABI's preference for comprehensive information and step-by-step guidance, the clear labeling and placement of the "New issue" button provide a straightforward cue for ABI to proceed. The page is well-organized and intuitive, ensuring that ABI will know what to do at this step and feel confident in taking the action to click the "New issue" button.</t>
+Why: The "New issue" button is prominently displayed at the top right of the page, making it easy to identify. ABI, who prefers comprehensive information and process-oriented learning, would recognize that clicking this button is the next logical step in the process of filing an issue. The clear labeling and placement of the button provide a straightforward action to take, ensuring that ABI knows what to do at this step and feels confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," ABI is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This clear and simple interface aligns with ABI's preference for comprehensive information and step-by-step guidance. The presence of the "Create issue" button at the bottom further confirms that ABI is on the right track and making progress toward their goal. The form provides all the necessary fields to file the issue, ensuring ABI has all the information needed to complete the task.</t>
+Why: After clicking "New issue," ABI is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This clear and organized layout aligns with ABI's preference for comprehensive information and process-oriented learning. The presence of the "Create issue" button at the bottom of the form further confirms that ABI is on the right track and making progress toward their goal. The simplicity and clarity of the form provide all the necessary information ABI needs to complete the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and step-by-step guidance, will find the form intuitive and easy to understand. The "Create issue" button at the bottom of the form provides a clear next step for submitting the issue. The page is well-organized and provides all the necessary fields and options for ABI to complete the task, ensuring that ABI knows what to do and feels confident in taking this action.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and process-oriented learning, will understand that they need to fill out these fields to file the issue. The "Create issue" button at the bottom of the form provides a clear next step for submitting the issue. The simplicity and clarity of the form ensure that ABI knows what to do at this step and feels confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, ABI is taken to a confirmation page that shows the newly created issue with a status of "Open" and the details they entered. This immediate feedback confirms that ABI has successfully filed the issue and is making progress toward their goal. The page is clear and provides all the necessary information, including the issue title, description, and status, ensuring that ABI knows they did the right thing and has all the information they need. The straightforward and informative layout aligns with ABI's preference for comprehensive information and step-by-step guidance.</t>
+Why: After submitting the issue, ABI is taken to a page that confirms the issue has been created, with a clear status indicator ("Open") and the issue details displayed. This immediate feedback confirms to ABI that they have successfully filed the issue and are making progress toward their goal. The page layout is clear and provides all the necessary information about the newly created issue, including options to edit, comment, or close the issue. This aligns with ABI's preference for comprehensive information and process-oriented learning, ensuring they feel confident that they did the right thing.</t>
         </is>
       </c>
     </row>
